--- a/Ebbinghaus.xlsx
+++ b/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporsitory\github_repository\guntensDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0394330C-9006-438B-96A1-3E3C75D4CF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E9D83-0D61-4C6C-985E-B649153ED3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>第2天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,15 +53,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lesson32-33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kill命令 和全表扫描为什么不会撑爆内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
+  </si>
+  <si>
+    <t>32-33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-join 语句的执行过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Index Nested-Loop Join 过程，算法复杂度
+2、Block Nested-Loop Join 过程，算法复杂。join_buffer作用
+3、能不能用join？
+4、大小表驱动怎么选？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35-join语句优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Multi-Range Read (MRR) 概念，如何优化的
+2、NLJ的优化：Batched Key Access
+3、BNL对系统的影响
+4、BNL如何优化成BKA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -88,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,14 +137,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,58 +426,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>43999</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>44000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <f>B3+1</f>
         <v>44000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <f t="shared" ref="C3:P4" si="0">C3+1</f>
+        <v>44001</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>44002</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -461,8 +514,16 @@
         <f>B3+3</f>
         <v>44002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <f>C3+3</f>
+        <v>44003</v>
+      </c>
+      <c r="D5" s="4">
+        <f>D3+3</f>
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -470,14 +531,30 @@
         <f>B3+6</f>
         <v>44005</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <f>C3+6</f>
+        <v>44006</v>
+      </c>
+      <c r="D6" s="2">
+        <f>D3+6</f>
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
         <f>B3+14</f>
         <v>44013</v>
+      </c>
+      <c r="C7" s="2">
+        <f>C3+14</f>
+        <v>44014</v>
+      </c>
+      <c r="D7" s="2">
+        <f>D3+14</f>
+        <v>44015</v>
       </c>
     </row>
   </sheetData>

--- a/Ebbinghaus.xlsx
+++ b/Ebbinghaus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporsitory\github_repository\guntensDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gunten Work\MyDoc\guntensDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E9D83-0D61-4C6C-985E-B649153ED3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF744B9-030F-4FC4-A0FD-F92CC453B6B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,32 +53,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kill命令 和全表扫描为什么不会撑爆内存</t>
-  </si>
-  <si>
-    <t>32-33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>34-join 语句的执行过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>35-join语句优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、Index Nested-Loop Join 过程，算法复杂度
-2、Block Nested-Loop Join 过程，算法复杂。join_buffer作用
-3、能不能用join？
-4、大小表驱动怎么选？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35-join语句优化</t>
+2、Simple Nested-Loop Join (已弃用)
+3、Block Nested-Loop Join 过程，算法复杂。join_buffer作用
+4、能不能用join？
+5、大小表驱动怎么选？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、Multi-Range Read (MRR) 概念，如何优化的
-2、NLJ的优化：Batched Key Access
+2、NLJ的优化：Batched Key Access,复用join_buffer
 3、BNL对系统的影响
 4、BNL如何优化成BKA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32-33
+kill命令 和全表扫描为什么不会撑爆内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、kill 2种类型
+2、收到 kill 以后，线程做什么？
+3、例举哪些情况kill不掉
+4、客户端ctrl+c有用? 停等协议
+5、全表扫描对server层影响，sending to client 和sending data
+6、全扫对innoDB 的影响(LRU如何起作用)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +438,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -441,26 +449,26 @@
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -485,12 +493,12 @@
         <f>B3+1</f>
         <v>44000</v>
       </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C3:P4" si="0">C3+1</f>
+      <c r="C4" s="5">
+        <f>C3+1</f>
         <v>44001</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
+      <c r="D4" s="5">
+        <f t="shared" ref="C4:D4" si="0">D3+1</f>
         <v>44002</v>
       </c>
       <c r="E4" s="3"/>
@@ -510,7 +518,7 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <f>B3+3</f>
         <v>44002</v>
       </c>

--- a/Ebbinghaus.xlsx
+++ b/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gunten Work\MyDoc\guntensDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF744B9-030F-4FC4-A0FD-F92CC453B6B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671E2887-6592-49C9-A94C-1B0A501C5F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>第2天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,19 @@
 4、客户端ctrl+c有用? 停等协议
 5、全表扫描对server层影响，sending to client 和sending data
 6、全扫对innoDB 的影响(LRU如何起作用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、临时表和内存表区别
+2、临时表特性 (主要重名性，会话独立性)
+3、分库分表中临时表常见用法
+select v from ht where k &gt;= M order by t_modified desc limit 100;
+4、表结构、表数据文件名；内存维护机制， table_def_key
+5、临时表的sql在主备执行情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36-为什么用户临时表可以重命名？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,15 +451,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -459,8 +473,11 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="165.6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -469,6 +486,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -484,6 +504,9 @@
       <c r="D3" s="2">
         <v>44001</v>
       </c>
+      <c r="E3" s="2">
+        <v>44003</v>
+      </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -498,10 +521,13 @@
         <v>44001</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="C4:D4" si="0">D3+1</f>
+        <f t="shared" ref="D4:E4" si="0">D3+1</f>
         <v>44002</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>44004</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -522,13 +548,17 @@
         <f>B3+3</f>
         <v>44002</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <f>C3+3</f>
         <v>44003</v>
       </c>
       <c r="D5" s="4">
         <f>D3+3</f>
         <v>44004</v>
+      </c>
+      <c r="E5" s="4">
+        <f>E3+3</f>
+        <v>44006</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -547,6 +577,10 @@
         <f>D3+6</f>
         <v>44007</v>
       </c>
+      <c r="E6" s="2">
+        <f>E3+6</f>
+        <v>44009</v>
+      </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -563,6 +597,10 @@
       <c r="D7" s="2">
         <f>D3+14</f>
         <v>44015</v>
+      </c>
+      <c r="E7" s="2">
+        <f>E3+14</f>
+        <v>44017</v>
       </c>
     </row>
   </sheetData>

--- a/Ebbinghaus.xlsx
+++ b/Ebbinghaus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gunten Work\MyDoc\guntensDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporsitory\github_repository\guntensDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671E2887-6592-49C9-A94C-1B0A501C5F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C048B7A5-5E4E-4BD5-95CB-E1B8934A6AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>36-为什么用户临时表可以重命名？</t>
+    <t>36-为什么用户临时表可以重名？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -158,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -167,6 +173,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -524,7 +531,7 @@
         <f t="shared" ref="D4:E4" si="0">D3+1</f>
         <v>44002</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>44004</v>
       </c>
@@ -552,7 +559,7 @@
         <f>C3+3</f>
         <v>44003</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <f>D3+3</f>
         <v>44004</v>
       </c>

--- a/Ebbinghaus.xlsx
+++ b/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporsitory\github_repository\guntensDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C048B7A5-5E4E-4BD5-95CB-E1B8934A6AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D6A55-BFFD-4FC0-A6FE-A69018CA6D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>第2天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,15 +78,6 @@
   <si>
     <t>32-33
 kill命令 和全表扫描为什么不会撑爆内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、kill 2种类型
-2、收到 kill 以后，线程做什么？
-3、例举哪些情况kill不掉
-4、客户端ctrl+c有用? 停等协议
-5、全表扫描对server层影响，sending to client 和sending data
-6、全扫对innoDB 的影响(LRU如何起作用)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,6 +91,36 @@
   </si>
   <si>
     <t>36-为什么用户临时表可以重名？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37-什么时候会使用内部临时表？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、kill 2种类型
+2、收到 kill 以后，线程做什么？
+3、例举哪些情况kill不掉
+4、客户端ctrl+c有用实际过程？ 停等协议
+5、全表扫描对server层影响，sending to client 和sending data
+6、全扫对innoDB 的影响(LRU如何起作用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、union用，union all 不用
+2、group by 执行流程? 内存临时表不够，会怎样?
+3、group by 优化之   为什么需要临时表？
+(1)索引   (2)hint -SQL_BIG_RESULT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38-Memory引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、内存表的数据组织结构？
+2、hash索引和B-tree索引
+3、内存表的2个主要缺点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +479,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -468,6 +489,8 @@
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -481,12 +504,18 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="165.6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -495,7 +524,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -514,6 +549,12 @@
       <c r="E3" s="2">
         <v>44003</v>
       </c>
+      <c r="F3" s="2">
+        <v>44005</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44006</v>
+      </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -535,8 +576,14 @@
         <f t="shared" si="0"/>
         <v>44004</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:G4" si="1">F3+1</f>
+        <v>44006</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>44007</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -567,12 +614,20 @@
         <f>E3+3</f>
         <v>44006</v>
       </c>
+      <c r="F5" s="4">
+        <f>F3+3</f>
+        <v>44008</v>
+      </c>
+      <c r="G5" s="4">
+        <f>G3+3</f>
+        <v>44009</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <f>B3+6</f>
         <v>44005</v>
       </c>
@@ -587,6 +642,14 @@
       <c r="E6" s="2">
         <f>E3+6</f>
         <v>44009</v>
+      </c>
+      <c r="F6" s="2">
+        <f>F3+6</f>
+        <v>44011</v>
+      </c>
+      <c r="G6" s="2">
+        <f>G3+6</f>
+        <v>44012</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -608,6 +671,14 @@
       <c r="E7" s="2">
         <f>E3+14</f>
         <v>44017</v>
+      </c>
+      <c r="F7" s="2">
+        <f>F3+14</f>
+        <v>44019</v>
+      </c>
+      <c r="G7" s="2">
+        <f>G3+14</f>
+        <v>44020</v>
       </c>
     </row>
   </sheetData>

--- a/Ebbinghaus.xlsx
+++ b/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporsitory\github_repository\guntensDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D6A55-BFFD-4FC0-A6FE-A69018CA6D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8600D1-3371-4574-B691-0492C0367A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,14 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -479,7 +478,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -560,19 +559,19 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>B3+1</f>
         <v>44000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>C3+1</f>
         <v>44001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:E4" si="0">D3+1</f>
         <v>44002</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>44004</v>
       </c>
@@ -598,28 +597,28 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
-        <f>B3+3</f>
+      <c r="B5" s="4">
+        <f t="shared" ref="B5:G5" si="2">B3+3</f>
         <v>44002</v>
       </c>
-      <c r="C5" s="5">
-        <f>C3+3</f>
+      <c r="C5" s="4">
+        <f t="shared" si="2"/>
         <v>44003</v>
       </c>
-      <c r="D5" s="6">
-        <f>D3+3</f>
+      <c r="D5" s="5">
+        <f t="shared" si="2"/>
         <v>44004</v>
       </c>
       <c r="E5" s="4">
-        <f>E3+3</f>
+        <f t="shared" si="2"/>
         <v>44006</v>
       </c>
       <c r="F5" s="4">
-        <f>F3+3</f>
+        <f t="shared" si="2"/>
         <v>44008</v>
       </c>
       <c r="G5" s="4">
-        <f>G3+3</f>
+        <f t="shared" si="2"/>
         <v>44009</v>
       </c>
     </row>
@@ -627,28 +626,28 @@
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
-        <f>B3+6</f>
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:G6" si="3">B3+6</f>
         <v>44005</v>
       </c>
-      <c r="C6" s="2">
-        <f>C3+6</f>
+      <c r="C6" s="4">
+        <f t="shared" si="3"/>
         <v>44006</v>
       </c>
-      <c r="D6" s="2">
-        <f>D3+6</f>
+      <c r="D6" s="4">
+        <f t="shared" si="3"/>
         <v>44007</v>
       </c>
       <c r="E6" s="2">
-        <f>E3+6</f>
+        <f t="shared" si="3"/>
         <v>44009</v>
       </c>
       <c r="F6" s="2">
-        <f>F3+6</f>
+        <f t="shared" si="3"/>
         <v>44011</v>
       </c>
       <c r="G6" s="2">
-        <f>G3+6</f>
+        <f t="shared" si="3"/>
         <v>44012</v>
       </c>
     </row>
@@ -657,27 +656,27 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <f>B3+14</f>
+        <f t="shared" ref="B7:G7" si="4">B3+14</f>
         <v>44013</v>
       </c>
       <c r="C7" s="2">
-        <f>C3+14</f>
+        <f t="shared" si="4"/>
         <v>44014</v>
       </c>
       <c r="D7" s="2">
-        <f>D3+14</f>
+        <f t="shared" si="4"/>
         <v>44015</v>
       </c>
       <c r="E7" s="2">
-        <f>E3+14</f>
+        <f t="shared" si="4"/>
         <v>44017</v>
       </c>
       <c r="F7" s="2">
-        <f>F3+14</f>
+        <f t="shared" si="4"/>
         <v>44019</v>
       </c>
       <c r="G7" s="2">
-        <f>G3+14</f>
+        <f t="shared" si="4"/>
         <v>44020</v>
       </c>
     </row>

--- a/Ebbinghaus.xlsx
+++ b/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporsitory\github_repository\guntensDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8600D1-3371-4574-B691-0492C0367A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260C125-D5BA-458D-8456-51801017DEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>第2天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,31 @@
     <t>1、内存表的数据组织结构？
 2、hash索引和B-tree索引
 3、内存表的2个主要缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39-自增主键为何不连续？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、存在哪(myISAM，innerdb 5.7及之前，8.0后)
+2、自增值修改机制?
+3、自增锁的优化史
+5.0，语句级别锁
+5.1，innodb_autoinc_lock_mode = 0/1/2
+4、主键不连续的3种情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-insert 语句的锁为什么这么多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、insert … select  RR级别，binlog_format=statement下，为什么对所有行和间隙加锁
+2、insert into t(c,d)  (select c+1, d from t force index(c) order by c desc limit 1); 同表循环写入的 过程
+3、insert 唯一键冲突
+经典的死锁场景
+4、insert into … on duplicate key update，多列违反唯一性约束？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,6 +219,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -490,9 +516,11 @@
     <col min="5" max="5" width="26.88671875" customWidth="1"/>
     <col min="6" max="6" width="19.21875" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -511,8 +539,14 @@
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -530,6 +564,12 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -554,6 +594,12 @@
       <c r="G3" s="2">
         <v>44006</v>
       </c>
+      <c r="H3" s="2">
+        <v>44010</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44011</v>
+      </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -583,8 +629,14 @@
         <f t="shared" si="1"/>
         <v>44007</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:I4" si="2">H3+1</f>
+        <v>44011</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -598,28 +650,36 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:G5" si="2">B3+3</f>
+        <f t="shared" ref="B5:G5" si="3">B3+3</f>
         <v>44002</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44003</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44004</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44006</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44008</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44009</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:I5" si="4">H3+3</f>
+        <v>44013</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="4"/>
+        <v>44014</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -627,28 +687,36 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ref="B6:G6" si="3">B3+6</f>
+        <f t="shared" ref="B6:G6" si="5">B3+6</f>
         <v>44005</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44006</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44007</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44009</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44011</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44012</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:I6" si="6">H3+6</f>
+        <v>44016</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="6"/>
+        <v>44017</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -656,28 +724,36 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" ref="B7:G7" si="4">B3+14</f>
+        <f t="shared" ref="B7:G7" si="7">B3+14</f>
         <v>44013</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44014</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44015</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44017</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44019</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44020</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:I7" si="8">H3+14</f>
+        <v>44024</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="8"/>
+        <v>44025</v>
       </c>
     </row>
   </sheetData>

--- a/Ebbinghaus.xlsx
+++ b/Ebbinghaus.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporsitory\github_repository\guntensDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260C125-D5BA-458D-8456-51801017DEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA122BDD-9D04-47F0-89E6-829CFB628DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MySQL" sheetId="1" r:id="rId1"/>
+    <sheet name="web容器" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -81,15 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、临时表和内存表区别
-2、临时表特性 (主要重名性，会话独立性)
-3、分库分表中临时表常见用法
-select v from ht where k &gt;= M order by t_modified desc limit 100;
-4、表结构、表数据文件名；内存维护机制， table_def_key
-5、临时表的sql在主备执行情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>36-为什么用户临时表可以重名？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,12 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、内存表的数据组织结构？
-2、hash索引和B-tree索引
-3、内存表的2个主要缺点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>39-自增主键为何不连续？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +132,21 @@
 3、insert 唯一键冲突
 经典的死锁场景
 4、insert into … on duplicate key update，多列违反唯一性约束？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、临时表和内存表区别
+2、临时表特性 (主要重名性，会话独立性，可见性)
+3、分库分表中临时表常见用法
+select v from ht where k &gt;= M order by t_modified desc limit 100;
+4、表结构、表数据(5.7以前，5.7之后)；内存维护机制， table_def_key
+5、临时表的sql在主备执行情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、内存表的数据组织结构？InnoDB表与内存表的差异
+2、hash索引和B-tree索引
+3、内存表的2个主要缺点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -220,6 +221,7 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,11 +502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,7 +522,7 @@
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -531,24 +533,24 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -557,19 +559,19 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -629,11 +631,11 @@
         <f t="shared" si="1"/>
         <v>44007</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <f t="shared" ref="H4:I4" si="2">H3+1</f>
         <v>44011</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="2"/>
         <v>44012</v>
       </c>
@@ -698,15 +700,15 @@
         <f t="shared" si="5"/>
         <v>44007</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <f t="shared" si="5"/>
         <v>44009</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <f t="shared" si="5"/>
         <v>44011</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <f t="shared" si="5"/>
         <v>44012</v>
       </c>
@@ -755,10 +757,27 @@
         <f t="shared" si="8"/>
         <v>44025</v>
       </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62036C0-355F-4CF4-9B0E-FB6E01C4F43F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ebbinghaus.xlsx
+++ b/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporsitory\github_repository\guntensDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA122BDD-9D04-47F0-89E6-829CFB628DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDBA8E-3E72-4920-B39C-55536CD978AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -220,7 +220,6 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -506,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -675,11 +674,11 @@
         <f t="shared" si="3"/>
         <v>44009</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f t="shared" ref="H5:I5" si="4">H3+3</f>
         <v>44013</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="4"/>
         <v>44014</v>
       </c>
@@ -725,11 +724,11 @@
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <f t="shared" ref="B7:G7" si="7">B3+14</f>
         <v>44013</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <f t="shared" si="7"/>
         <v>44014</v>
       </c>
@@ -759,7 +758,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G15" s="7"/>
+      <c r="G15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Ebbinghaus.xlsx
+++ b/Ebbinghaus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporsitory\github_repository\guntensDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDBA8E-3E72-4920-B39C-55536CD978AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1E6943-BE8F-4E78-81F2-F0BED5D0E055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -711,11 +711,11 @@
         <f t="shared" si="5"/>
         <v>44012</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <f t="shared" ref="H6:I6" si="6">H3+6</f>
         <v>44016</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <f t="shared" si="6"/>
         <v>44017</v>
       </c>
@@ -732,11 +732,11 @@
         <f t="shared" si="7"/>
         <v>44014</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <f t="shared" si="7"/>
         <v>44015</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <f t="shared" si="7"/>
         <v>44017</v>
       </c>
